--- a/CC000000_abrechnung_final.xlsx
+++ b/CC000000_abrechnung_final.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Liste" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Details" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Liste" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Details" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="137">
   <si>
     <t xml:space="preserve">Dokumenttyp</t>
   </si>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">6020 Innsbruck</t>
   </si>
   <si>
-    <t xml:space="preserve">AT00 3456 7890 1234 6789 00</t>
+    <t xml:space="preserve">AT023200000000641605</t>
   </si>
   <si>
     <t xml:space="preserve">Test Energiegemeinschaft</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">Vereinskonto </t>
   </si>
   <si>
-    <t xml:space="preserve">AT00 0000 7890 1234 6789 00 </t>
+    <t xml:space="preserve">AT022011100003429660</t>
   </si>
   <si>
     <t xml:space="preserve">------------</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">Teststraße 2</t>
   </si>
   <si>
-    <t xml:space="preserve">AT12 3456 7890 1234 6789 01</t>
+    <t xml:space="preserve">AT021200000703447144</t>
   </si>
   <si>
     <t xml:space="preserve">Frau</t>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t xml:space="preserve">6021 Innsbruck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT12 3456 7890 1234 6789 02</t>
   </si>
   <si>
     <t xml:space="preserve">Pos. Zählpunkttyp</t>
@@ -524,28 +521,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -561,328 +566,434 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y3" activeCellId="0" sqref="Y3:Z4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="30.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="30.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>45583</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="4" t="n">
         <v>45542</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="n">
         <v>1.46</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="n">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="n">
         <v>13.32</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>14.78</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Y2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>45583</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="4" t="n">
         <v>45530</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="3" t="n">
         <v>2.11</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="n">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3" t="n">
         <v>10.57</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="V3" s="3" t="n">
         <v>12.68</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="0" t="s">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>45583</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>45540</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="K4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>45530</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="0" t="s">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M5" s="2"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="4"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -904,1164 +1015,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Y3:Z4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>45583</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>45518</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="3" t="n">
-        <v>45518</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="3" t="n">
+        <v>40.14</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="2" t="n">
-        <v>40.14</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>45583</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="4" t="n">
+        <v>45551</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="3" t="n">
-        <v>45551</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="3" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="2" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>45583</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="4" t="n">
+        <v>45551</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>45551</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="n">
+      <c r="W4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="n">
+      <c r="Y4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>45583</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="4" t="n">
+        <v>45547</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>45547</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="n">
+      <c r="W5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="n">
+      <c r="Y5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Y5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD5" s="2"/>
+      <c r="AB5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="F6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>45547</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>57.96</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>8.11</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>45583</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>45547</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>45540</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>57.96</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="R7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="V6" s="2" t="s">
+      <c r="W7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="W6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>8.11</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>45583</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>45540</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="5" t="s">
+      <c r="AC7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="2" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>45583</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="4" t="n">
+        <v>45542</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="3" t="n">
-        <v>45542</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="3" t="n">
         <v>52.27</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U8" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2" t="n">
+      <c r="W8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="n">
         <v>7.32</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Y8" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="Z8" s="2" t="n">
+      <c r="Z8" s="3" t="n">
         <v>1.46</v>
       </c>
-      <c r="AA8" s="2" t="n">
+      <c r="AA8" s="3" t="n">
         <v>8.78</v>
       </c>
-      <c r="AB8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD8" s="2"/>
+      <c r="AB8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>45583</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="4" t="n">
         <v>45542</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="n">
+      <c r="W9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2" t="n">
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Y9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD9" s="2"/>
+      <c r="AB9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="4" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>45583</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="4" t="n">
+        <v>45533</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="N10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="3" t="n">
-        <v>45533</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="3" t="n">
+        <v>173.74</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="S10" s="2" t="n">
-        <v>173.74</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>89</v>
+      <c r="AD10" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>45583</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="4" t="n">
+        <v>45540</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>45540</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="n">
+      <c r="W11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2" t="n">
+      <c r="Y11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Y11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AB11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD11" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>45583</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="4" t="n">
+        <v>45530</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="N12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L12" s="3" t="n">
-        <v>45530</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="3" t="n">
+        <v>66.07</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="Y12" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="3" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA12" s="3" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AB12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="2" t="n">
-        <v>66.07</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AB12" s="2" t="s">
+      <c r="AC12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AD12" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>45583</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="4" t="n">
+        <v>45533</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="N13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="3" t="n">
-        <v>45533</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="3" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="Y13" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA13" s="3" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="S13" s="2" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AD13" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/CC000000_abrechnung_final.xlsx
+++ b/CC000000_abrechnung_final.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Liste" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Details" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Liste" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Details" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="138">
   <si>
     <t xml:space="preserve">Dokumenttyp</t>
   </si>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">6020 Innsbruck</t>
   </si>
   <si>
-    <t xml:space="preserve">AT023200000000641605</t>
+    <t xml:space="preserve">AT00 3456 7890 1234 6789 00</t>
   </si>
   <si>
     <t xml:space="preserve">Test Energiegemeinschaft</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">Vereinskonto </t>
   </si>
   <si>
-    <t xml:space="preserve">AT022011100003429660</t>
+    <t xml:space="preserve">AT00 0000 7890 1234 6789 00 </t>
   </si>
   <si>
     <t xml:space="preserve">------------</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">Teststraße 2</t>
   </si>
   <si>
-    <t xml:space="preserve">AT021200000703447144</t>
+    <t xml:space="preserve">AT12 3456 7890 1234 6789 01</t>
   </si>
   <si>
     <t xml:space="preserve">Frau</t>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">6021 Innsbruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT12 3456 7890 1234 6789 02</t>
   </si>
   <si>
     <t xml:space="preserve">Pos. Zählpunkttyp</t>
@@ -521,36 +524,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -566,434 +561,328 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y3" activeCellId="0" sqref="Y3:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="30.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="30.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="3" t="n">
         <v>45542</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="2" t="n">
         <v>1.46</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="n">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="n">
         <v>13.32</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="2" t="n">
         <v>14.78</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="3" t="n">
         <v>45530</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3" t="n">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="n">
         <v>10.57</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="2" t="n">
         <v>12.68</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="1" t="s">
+      <c r="X3" s="2"/>
+      <c r="Y3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>45530</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="W4" s="3" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="1" t="s">
+      <c r="X4" s="2"/>
+      <c r="Y4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M5" s="3"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1015,1164 +904,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Y3:Z4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="4" t="n">
+      <c r="K2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>45518</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="R2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="2" t="n">
         <v>40.14</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" s="3" t="n">
+      <c r="T2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3" t="n">
+      <c r="V2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
         <v>3.21</v>
       </c>
-      <c r="Y2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3" t="n">
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2" t="n">
         <v>3.21</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>45551</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="P3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="R3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="2" t="n">
         <v>4.18</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="3" t="n">
+      <c r="T3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3" t="n">
+      <c r="V3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Z3" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="AB3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AB3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>88</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>45551</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="M4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
+      <c r="P4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="W4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>45547</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>45583</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>45547</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="W5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD5" s="3"/>
+      <c r="AD5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="4" t="n">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="3" t="n">
         <v>45547</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>57.96</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>8.11</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>45540</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" s="3" t="n">
-        <v>57.96</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="V6" s="3" t="s">
+      <c r="P7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>8.11</v>
-      </c>
-      <c r="Y6" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA6" s="3" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>45583</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>45540</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="S7" s="3" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U7" s="3" t="n">
+      <c r="U7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="n">
+      <c r="V7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
         <v>1.23</v>
       </c>
-      <c r="Y7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="n">
+      <c r="Y7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="n">
         <v>1.23</v>
       </c>
-      <c r="AB7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AB7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>104</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="K8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>45542</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>52.27</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>8.78</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" s="3" t="n">
-        <v>52.27</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U8" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="Y8" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA8" s="3" t="n">
-        <v>8.78</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD8" s="3"/>
+      <c r="AD8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="K9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>45542</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="W9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD9" s="3"/>
+      <c r="AD9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>45533</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="3" t="s">
+      <c r="M10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="S10" s="3" t="n">
+      <c r="Q10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S10" s="2" t="n">
         <v>173.74</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U10" s="3" t="n">
+      <c r="T10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3" t="n">
+      <c r="V10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="n">
         <v>13.9</v>
       </c>
-      <c r="Y10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="n">
+      <c r="Y10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="n">
         <v>13.9</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>88</v>
+      <c r="AB10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>45540</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="M11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="S11" s="3" t="n">
+      <c r="P11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3" t="n">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="W11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AC11" s="2" t="s">
         <v>104</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" s="4" t="n">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="3" t="n">
         <v>45530</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="M12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="O12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="3" t="n">
+      <c r="P12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" s="2" t="n">
         <v>66.07</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U12" s="3" t="n">
+      <c r="T12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3" t="n">
+      <c r="V12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="n">
         <v>10.57</v>
       </c>
-      <c r="Y12" s="3" t="n">
+      <c r="Y12" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="Z12" s="3" t="n">
+      <c r="Z12" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="AA12" s="3" t="n">
+      <c r="AA12" s="2" t="n">
         <v>12.68</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC12" s="3" t="s">
+      <c r="AB12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AC12" s="2" t="s">
         <v>128</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>45583</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" s="4" t="n">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>45533</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13" s="3" t="s">
+      <c r="M13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="S13" s="3" t="n">
+      <c r="P13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S13" s="2" t="n">
         <v>48.8</v>
       </c>
-      <c r="T13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="3" t="n">
+      <c r="T13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="V13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3" t="n">
+      <c r="V13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" t="n">
         <v>6.83</v>
       </c>
-      <c r="Y13" s="3" t="n">
+      <c r="Y13" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="Z13" s="3" t="n">
+      <c r="Z13" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="AA13" s="3" t="n">
+      <c r="AA13" s="2" t="n">
         <v>8.2</v>
       </c>
-      <c r="AB13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD13" s="3" t="s">
+      <c r="AB13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>136</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
